--- a/my_work/data1/totall1.xlsx
+++ b/my_work/data1/totall1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DE3AAE-691F-407E-B7FB-1F029E162E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C145FE-29AA-4E4B-AA25-2359F6D138EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,13 +426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BL3" sqref="BL3:BL52"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:68" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1966</v>
       </c>
@@ -792,6 +792,9 @@
       <c r="BK2">
         <v>73.435002258015956</v>
       </c>
+      <c r="BL2">
+        <v>72.555913568856298</v>
+      </c>
       <c r="BM2">
         <v>63.260000000000005</v>
       </c>
@@ -805,7 +808,7 @@
         <v>74.53478260869565</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1967</v>
       </c>
@@ -922,8 +925,8 @@
         <v>78.606266294641756</v>
       </c>
       <c r="BL3">
-        <f>AVERAGE(BK2:BK3)</f>
-        <v>76.020634276328849</v>
+        <f>72.5559135688563-BK3</f>
+        <v>-6.0503527257854586</v>
       </c>
       <c r="BM3">
         <v>73.813374485596697</v>
@@ -938,7 +941,7 @@
         <v>82.263966499788808</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1968</v>
       </c>
@@ -1055,8 +1058,8 @@
         <v>79.089531774676502</v>
       </c>
       <c r="BL4">
-        <f t="shared" ref="BL4:BL52" si="1">AVERAGE(BK3:BK4)</f>
-        <v>78.847899034659122</v>
+        <f t="shared" ref="BL4:BL52" si="1">72.5559135688563-BK4</f>
+        <v>-6.5336182058202041</v>
       </c>
       <c r="BM4">
         <v>73.27778264229029</v>
@@ -1071,7 +1074,7 @@
         <v>80.423159056157118</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1969</v>
       </c>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="BL5">
         <f t="shared" si="1"/>
-        <v>76.956962936864073</v>
+        <v>-2.2684805301953332</v>
       </c>
       <c r="BM5">
         <v>65.103086473803231</v>
@@ -1204,7 +1207,7 @@
         <v>80.26074437551938</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1970</v>
       </c>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="BL6">
         <f t="shared" si="1"/>
-        <v>76.419991763012206</v>
+        <v>-5.4596758581164977</v>
       </c>
       <c r="BM6">
         <v>68.556700960820024</v>
@@ -1397,7 +1400,7 @@
         <v>82.47408882619176</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1971</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="BL7">
         <f t="shared" si="1"/>
-        <v>76.709220274227022</v>
+        <v>-2.846937552624965</v>
       </c>
       <c r="BM7">
         <v>66.829862061830028</v>
@@ -1590,7 +1593,7 @@
         <v>77.764572141253922</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1972</v>
       </c>
@@ -1768,7 +1771,7 @@
       </c>
       <c r="BL8">
         <f t="shared" si="1"/>
-        <v>74.770278019757029</v>
+        <v>-1.5817913491764983</v>
       </c>
       <c r="BM8">
         <v>66.46406441826187</v>
@@ -1783,7 +1786,7 @@
         <v>77.560484479796244</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1973</v>
       </c>
@@ -1961,7 +1964,7 @@
       </c>
       <c r="BL9">
         <f t="shared" si="1"/>
-        <v>74.838910520506587</v>
+        <v>-2.9842025541240815</v>
       </c>
       <c r="BM9">
         <v>66.003517640063222</v>
@@ -1976,7 +1979,7 @@
         <v>79.719135700867355</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1974</v>
       </c>
@@ -2154,7 +2157,7 @@
       </c>
       <c r="BL10">
         <f t="shared" si="1"/>
-        <v>75.699451063287171</v>
+        <v>-3.302872434737651</v>
       </c>
       <c r="BM10">
         <v>65.148927973778484</v>
@@ -2169,7 +2172,7 @@
         <v>81.518079217749033</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1975</v>
       </c>
@@ -2317,7 +2320,7 @@
       </c>
       <c r="BL11">
         <f t="shared" si="1"/>
-        <v>75.858289475833601</v>
+        <v>-3.3018793792169419</v>
       </c>
       <c r="BM11">
         <v>67.30005896635312</v>
@@ -2332,7 +2335,7 @@
         <v>79.924395673185742</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1976</v>
       </c>
@@ -2480,7 +2483,7 @@
       </c>
       <c r="BL12">
         <f t="shared" si="1"/>
-        <v>76.765013957584571</v>
+        <v>-5.1163213982396059</v>
       </c>
       <c r="BM12">
         <v>71.97094676204604</v>
@@ -2495,7 +2498,7 @@
         <v>79.83447377619342</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1977</v>
       </c>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="BL13">
         <f t="shared" si="1"/>
-        <v>77.441967271904744</v>
+        <v>-4.6557860078572872</v>
       </c>
       <c r="BM13">
         <v>70.745364110051526</v>
@@ -2688,7 +2691,7 @@
         <v>81.696570367132537</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1978</v>
       </c>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="BL14">
         <f t="shared" si="1"/>
-        <v>75.620853373397736</v>
+        <v>-1.4740936012255901</v>
       </c>
       <c r="BM14">
         <v>64.552598328434229</v>
@@ -2881,7 +2884,7 @@
         <v>73.80323134885306</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1979</v>
       </c>
@@ -3059,7 +3062,7 @@
       </c>
       <c r="BL15">
         <f t="shared" si="1"/>
-        <v>72.635551530246431</v>
+        <v>1.3148176784453369</v>
       </c>
       <c r="BM15">
         <v>57.866139981427047</v>
@@ -3074,7 +3077,7 @@
         <v>77.232643819009269</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1980</v>
       </c>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="BL16">
         <f t="shared" si="1"/>
-        <v>71.462334895436186</v>
+        <v>0.87233966839490051</v>
       </c>
       <c r="BM16">
         <v>60.793914235542047</v>
@@ -3267,7 +3270,7 @@
         <v>75.950354824119671</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1981</v>
       </c>
@@ -3445,7 +3448,7 @@
       </c>
       <c r="BL17">
         <f t="shared" si="1"/>
-        <v>72.683479145540588</v>
+        <v>-1.1274708217634668</v>
       </c>
       <c r="BM17">
         <v>64.491043491506019</v>
@@ -3460,7 +3463,7 @@
         <v>76.19161154323551</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1982</v>
       </c>
@@ -3638,7 +3641,7 @@
       </c>
       <c r="BL18">
         <f t="shared" si="1"/>
-        <v>73.778616024904949</v>
+        <v>-1.3179340903338215</v>
       </c>
       <c r="BM18">
         <v>64.545456038794512</v>
@@ -3653,7 +3656,7 @@
         <v>78.199908821122136</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1983</v>
       </c>
@@ -3831,7 +3834,7 @@
       </c>
       <c r="BL19">
         <f t="shared" si="1"/>
-        <v>73.427484137749786</v>
+        <v>-0.4252070474531422</v>
       </c>
       <c r="BM19">
         <v>67.823506396596557</v>
@@ -3846,7 +3849,7 @@
         <v>78.015898629035021</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1984</v>
       </c>
@@ -4024,7 +4027,7 @@
       </c>
       <c r="BL20">
         <f t="shared" si="1"/>
-        <v>72.332636810886953</v>
+        <v>0.87176056339181685</v>
       </c>
       <c r="BM20">
         <v>60.417840729632928</v>
@@ -4039,7 +4042,7 @@
         <v>73.624085854663434</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1985</v>
       </c>
@@ -4217,7 +4220,7 @@
       </c>
       <c r="BL21">
         <f t="shared" si="1"/>
-        <v>72.731391571225387</v>
+        <v>-1.2227165681299965</v>
       </c>
       <c r="BM21">
         <v>62.77575378588481</v>
@@ -4232,7 +4235,7 @@
         <v>75.489392237550689</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1986</v>
       </c>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="BL22">
         <f t="shared" si="1"/>
-        <v>73.167184254102054</v>
+        <v>1.7519763848383718E-4</v>
       </c>
       <c r="BM22">
         <v>60.513063930954274</v>
@@ -4425,7 +4428,7 @@
         <v>76.952310486773584</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1987</v>
       </c>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="BL23">
         <f t="shared" si="1"/>
-        <v>72.224465935263453</v>
+        <v>0.66272006954719131</v>
       </c>
       <c r="BM23">
         <v>63.22275252402752</v>
@@ -4618,7 +4621,7 @@
         <v>75.59295989659536</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1988</v>
       </c>
@@ -4796,7 +4799,7 @@
       </c>
       <c r="BL24">
         <f t="shared" si="1"/>
-        <v>72.216327527723678</v>
+        <v>1.6452012718062292E-2</v>
       </c>
       <c r="BM24">
         <v>61.191009517602609</v>
@@ -4811,7 +4814,7 @@
         <v>77.771662607571699</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1989</v>
       </c>
@@ -4989,7 +4992,7 @@
       </c>
       <c r="BL25">
         <f t="shared" si="1"/>
-        <v>72.329767002232771</v>
+        <v>0.43584112052899115</v>
       </c>
       <c r="BM25">
         <v>63.097677883528924</v>
@@ -5004,7 +5007,7 @@
         <v>76.490411874510457</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1990</v>
       </c>
@@ -5182,7 +5185,7 @@
       </c>
       <c r="BL26">
         <f t="shared" si="1"/>
-        <v>73.211750471671849</v>
+        <v>-1.7475149261600933</v>
       </c>
       <c r="BM26">
         <v>66.921375582089325</v>
@@ -5197,7 +5200,7 @@
         <v>75.977525756237171</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -5375,7 +5378,7 @@
       </c>
       <c r="BL27">
         <f t="shared" si="1"/>
-        <v>74.185614173781175</v>
+        <v>-1.5118862836896767</v>
       </c>
       <c r="BM27">
         <v>62.759472425291527</v>
@@ -5390,7 +5393,7 @@
         <v>77.891456956824896</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1992</v>
       </c>
@@ -5568,7 +5571,7 @@
       </c>
       <c r="BL28">
         <f t="shared" si="1"/>
-        <v>73.447616629445065</v>
+        <v>-0.27151983748787245</v>
       </c>
       <c r="BM28">
         <v>68.853683678886327</v>
@@ -5583,7 +5586,7 @@
         <v>76.455121977582252</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1993</v>
       </c>
@@ -5761,7 +5764,7 @@
       </c>
       <c r="BL29">
         <f t="shared" si="1"/>
-        <v>73.326705001387666</v>
+        <v>-1.2700630275748495</v>
       </c>
       <c r="BM29">
         <v>67.105641232635108</v>
@@ -5776,7 +5779,7 @@
         <v>76.657783465151624</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1994</v>
       </c>
@@ -5954,7 +5957,7 @@
       </c>
       <c r="BL30">
         <f t="shared" si="1"/>
-        <v>73.068788369356554</v>
+        <v>0.24431342657435096</v>
       </c>
       <c r="BM30">
         <v>62.422389729957061</v>
@@ -5969,7 +5972,7 @@
         <v>75.537157037739348</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1995</v>
       </c>
@@ -6147,7 +6150,7 @@
       </c>
       <c r="BL31">
         <f t="shared" si="1"/>
-        <v>72.564652354252871</v>
+        <v>-0.26179099736749833</v>
       </c>
       <c r="BM31">
         <v>63.368159928209352</v>
@@ -6162,7 +6165,7 @@
         <v>76.858151852250487</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1996</v>
       </c>
@@ -6340,7 +6343,7 @@
       </c>
       <c r="BL32">
         <f t="shared" si="1"/>
-        <v>72.429741747183186</v>
+        <v>0.51413464071373483</v>
       </c>
       <c r="BM32">
         <v>62.694913049454271</v>
@@ -6355,7 +6358,7 @@
         <v>75.321558770532619</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1997</v>
       </c>
@@ -6533,7 +6536,7 @@
       </c>
       <c r="BL33">
         <f t="shared" si="1"/>
-        <v>71.677837381766139</v>
+        <v>1.2420177334665823</v>
       </c>
       <c r="BM33">
         <v>63.518093804160671</v>
@@ -6548,7 +6551,7 @@
         <v>73.60969828135481</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1998</v>
       </c>
@@ -6726,7 +6729,7 @@
       </c>
       <c r="BL34">
         <f t="shared" si="1"/>
-        <v>71.294315986842847</v>
+        <v>1.2811774305603194</v>
       </c>
       <c r="BM34">
         <v>59.44787565470331</v>
@@ -6741,7 +6744,7 @@
         <v>73.913854567709024</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -6919,7 +6922,7 @@
       </c>
       <c r="BL35">
         <f t="shared" si="1"/>
-        <v>71.590798909354206</v>
+        <v>0.6490518884438643</v>
       </c>
       <c r="BM35">
         <v>57.720787788898562</v>
@@ -6934,7 +6937,7 @@
         <v>76.646162247794038</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -7112,7 +7115,7 @@
       </c>
       <c r="BL36">
         <f t="shared" si="1"/>
-        <v>72.456539218305039</v>
+        <v>-0.45030318734136188</v>
       </c>
       <c r="BM36">
         <v>62.737026432667413</v>
@@ -7127,7 +7130,7 @@
         <v>75.150501763562971</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -7305,7 +7308,7 @@
       </c>
       <c r="BL37">
         <f t="shared" si="1"/>
-        <v>72.698634533139298</v>
+        <v>0.1648612587753604</v>
       </c>
       <c r="BM37">
         <v>61.60553792702234</v>
@@ -7320,7 +7323,7 @@
         <v>76.817418992263754</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -7498,7 +7501,7 @@
       </c>
       <c r="BL38">
         <f t="shared" si="1"/>
-        <v>72.081957913121045</v>
+        <v>0.78305005269514538</v>
       </c>
       <c r="BM38">
         <v>63.495126536942827</v>
@@ -7513,7 +7516,7 @@
         <v>73.204685450035498</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2003</v>
       </c>
@@ -7691,7 +7694,7 @@
       </c>
       <c r="BL39">
         <f t="shared" si="1"/>
-        <v>71.266635732188661</v>
+        <v>1.7955056206401423</v>
       </c>
       <c r="BM39">
         <v>63.090509896607344</v>
@@ -7706,7 +7709,7 @@
         <v>73.317442233152548</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2004</v>
       </c>
@@ -7884,7 +7887,7 @@
       </c>
       <c r="BL40">
         <f t="shared" si="1"/>
-        <v>70.555879030393953</v>
+        <v>2.2045634562845464</v>
       </c>
       <c r="BM40">
         <v>59.679196476122591</v>
@@ -7899,7 +7902,7 @@
         <v>72.151276546012525</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2005</v>
       </c>
@@ -8077,7 +8080,7 @@
       </c>
       <c r="BL41">
         <f t="shared" si="1"/>
-        <v>69.019166016874436</v>
+        <v>4.8689316476791902</v>
       </c>
       <c r="BM41">
         <v>60.261607529579919</v>
@@ -8092,7 +8095,7 @@
         <v>72.884378065498822</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -8270,7 +8273,7 @@
       </c>
       <c r="BL42">
         <f t="shared" si="1"/>
-        <v>68.720505046289276</v>
+        <v>2.8018853974548676</v>
       </c>
       <c r="BM42">
         <v>59.985128972550889</v>
@@ -8285,7 +8288,7 @@
         <v>73.055264978972815</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2007</v>
       </c>
@@ -8463,7 +8466,7 @@
       </c>
       <c r="BL43">
         <f t="shared" si="1"/>
-        <v>70.927492768169543</v>
+        <v>0.45495620391862701</v>
       </c>
       <c r="BM43">
         <v>60.733393708774862</v>
@@ -8478,7 +8481,7 @@
         <v>75.167992010641015</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2008</v>
       </c>
@@ -8656,7 +8659,7 @@
       </c>
       <c r="BL44">
         <f t="shared" si="1"/>
-        <v>71.703338919755311</v>
+        <v>1.250193094283361</v>
       </c>
       <c r="BM44">
         <v>64.052297102580198</v>
@@ -8671,7 +8674,7 @@
         <v>74.018721248811815</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -8849,7 +8852,7 @@
       </c>
       <c r="BL45">
         <f t="shared" si="1"/>
-        <v>68.89119726348153</v>
+        <v>6.0792395164661883</v>
       </c>
       <c r="BM45">
         <v>57.607247745584218</v>
@@ -8864,7 +8867,7 @@
         <v>66.7610730570523</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -9042,7 +9045,7 @@
       </c>
       <c r="BL46">
         <f t="shared" si="1"/>
-        <v>66.625034150135178</v>
+        <v>5.7825193209760499</v>
       </c>
       <c r="BM46">
         <v>51.497858308284279</v>
@@ -9057,7 +9060,7 @@
         <v>75.145954396744088</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -9235,7 +9238,7 @@
       </c>
       <c r="BL47">
         <f t="shared" si="1"/>
-        <v>68.700702867181818</v>
+        <v>1.9279020823729098</v>
       </c>
       <c r="BM47">
         <v>61.901520273216157</v>
@@ -9250,7 +9253,7 @@
         <v>74.923300628504606</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2012</v>
       </c>
@@ -9428,7 +9431,7 @@
       </c>
       <c r="BL48">
         <f t="shared" si="1"/>
-        <v>68.382676052895604</v>
+        <v>6.4185729495484765</v>
       </c>
       <c r="BM48">
         <v>57.08867700886411</v>
@@ -9443,7 +9446,7 @@
         <v>67.973079354657656</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2013</v>
       </c>
@@ -9621,7 +9624,7 @@
       </c>
       <c r="BL49">
         <f t="shared" si="1"/>
-        <v>66.684542185283306</v>
+        <v>5.3241698175974932</v>
       </c>
       <c r="BM49">
         <v>55.812096411209595</v>
@@ -9636,7 +9639,7 @@
         <v>72.23666390602888</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -9814,7 +9817,7 @@
       </c>
       <c r="BL50">
         <f t="shared" si="1"/>
-        <v>67.321827685420828</v>
+        <v>5.1440019492734308</v>
       </c>
       <c r="BM50">
         <v>57.17347881766797</v>
@@ -9829,7 +9832,7 @@
         <v>72.148863236275048</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -10007,7 +10010,7 @@
       </c>
       <c r="BL51">
         <f t="shared" si="1"/>
-        <v>68.456960323095984</v>
+        <v>3.0539045422471816</v>
       </c>
       <c r="BM51">
         <v>59.541819785445888</v>
@@ -10022,7 +10025,7 @@
         <v>75.737908596578706</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -10200,7 +10203,7 @@
       </c>
       <c r="BL52">
         <f t="shared" si="1"/>
-        <v>71.517281275840531</v>
+        <v>-0.97663995621566357</v>
       </c>
       <c r="BM52">
         <v>65.380125395803674</v>
